--- a/案例6_拆分员工工资单/1 课程文件/员工工资表.xlsx
+++ b/案例6_拆分员工工资单/1 课程文件/员工工资表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yixingzeng/Documents/10.video/初级入门课/03 第三章 Excel 处理自动化 I/3.4 案例 6：拆分员工工资表/05.其他相关文件/case5/课程/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yixingzeng/Documents/0.workspace/60.my_course/ai-py-intro-course-c3/案例6_拆分员工工资单/1 课程文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C442AE4D-B6AA-E043-BB21-83FFAC5FEBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98A7EBA-8316-5E45-A170-2F6A8B414AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="-24920" windowWidth="34700" windowHeight="22500" xr2:uid="{C3651C1E-AC98-1A4F-85B2-F2704CCDB4F3}"/>
+    <workbookView xWindow="1100" yWindow="880" windowWidth="34900" windowHeight="22500" xr2:uid="{C3651C1E-AC98-1A4F-85B2-F2704CCDB4F3}"/>
   </bookViews>
   <sheets>
     <sheet name="工资表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>其他扣款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>病假（天）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假（天）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年假（天）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +245,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -303,60 +315,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,1121 +680,1187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F7D7D9-379D-7E48-8485-88963CEDD1DE}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="219" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" zoomScale="219" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5" customWidth="1"/>
-    <col min="27" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="9" customWidth="1"/>
+    <col min="5" max="6" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="5.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" style="9" customWidth="1"/>
+    <col min="30" max="259" width="8.83203125" style="9" customWidth="1"/>
+    <col min="260" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="60">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:29" s="6" customFormat="1" ht="60">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="S2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="T2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="U2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="V2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="X2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="Y2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="Z2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="AA2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="AB2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AC2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="16" customFormat="1">
-      <c r="A3" s="11">
+    <row r="3" spans="1:29">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="4">
         <v>4500</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="4">
         <v>2000</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
-        <f>SUM(E3:I3)</f>
-        <v>6502</v>
-      </c>
-      <c r="K3" s="14">
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUM(E3:L3)</f>
+        <v>6503</v>
+      </c>
+      <c r="N3" s="4">
         <v>150</v>
       </c>
-      <c r="L3" s="14">
+      <c r="O3" s="4">
         <v>100</v>
       </c>
-      <c r="M3" s="14">
+      <c r="P3" s="4">
         <v>50</v>
       </c>
-      <c r="N3" s="14">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14">
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
         <v>300</v>
       </c>
-      <c r="P3" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>0</v>
-      </c>
-      <c r="R3" s="14">
-        <f>SUM(K3:Q3)</f>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <f>SUM(N3:T3)</f>
         <v>600</v>
       </c>
-      <c r="S3" s="14">
-        <v>0</v>
-      </c>
-      <c r="T3" s="15">
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
         <f>E3*0.12</f>
         <v>540</v>
       </c>
-      <c r="U3" s="14">
+      <c r="X3" s="4">
         <v>10</v>
       </c>
-      <c r="V3" s="14">
-        <v>0</v>
-      </c>
-      <c r="W3" s="15">
-        <f>S3+T3+U3+V3</f>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>V3+W3+X3+Y3</f>
         <v>550</v>
       </c>
-      <c r="X3" s="15">
-        <f>J3+R3+W3</f>
-        <v>7652</v>
-      </c>
-      <c r="Y3" s="15">
-        <f>IF(X3-3500&lt;=0,0,IF(X3-3500&lt;=1500,(X3-3500)*0.03,IF(X3-3500&lt;=4500,(X3-3500)*0.1-105,IF(X3-3500&lt;=9000,(X3-3500)*0.2-555,IF(X3-3500&lt;=35000,(X3-3500)*0.25-1005,IF(X3-3500&lt;=55000,(X3-3500)*0.3-2755,IF(X3-3500&lt;=80000,(X3-3500)*0.35-5505,IF(X3-3500&gt;80000,(X3-3500)*0.45-13505,0))))))))</f>
-        <v>310.20000000000005</v>
-      </c>
-      <c r="Z3" s="15">
-        <f>X3-Y3-W3</f>
-        <v>6791.8</v>
+      <c r="AA3" s="3">
+        <f>M3+U3+Z3</f>
+        <v>7653</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>IF(AA3-3500&lt;=0,0,IF(AA3-3500&lt;=1500,(AA3-3500)*0.03,IF(AA3-3500&lt;=4500,(AA3-3500)*0.1-105,IF(AA3-3500&lt;=9000,(AA3-3500)*0.2-555,IF(AA3-3500&lt;=35000,(AA3-3500)*0.25-1005,IF(AA3-3500&lt;=55000,(AA3-3500)*0.3-2755,IF(AA3-3500&lt;=80000,(AA3-3500)*0.35-5505,IF(AA3-3500&gt;80000,(AA3-3500)*0.45-13505,0))))))))</f>
+        <v>310.3</v>
+      </c>
+      <c r="AC3" s="3">
+        <f>AA3-AB3-Z3</f>
+        <v>6792.7</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="16" customFormat="1">
-      <c r="A4" s="11">
+    <row r="4" spans="1:29">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="4">
         <v>6200</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="4">
         <v>3600</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
         <v>3</v>
       </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
-        <f t="shared" ref="J4:J12" si="0">SUM(E4:I4)</f>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M12" si="0">SUM(E4:L4)</f>
         <v>9803</v>
       </c>
-      <c r="K4" s="14">
+      <c r="N4" s="4">
         <v>150</v>
       </c>
-      <c r="L4" s="14">
+      <c r="O4" s="4">
         <v>100</v>
       </c>
-      <c r="M4" s="14">
+      <c r="P4" s="4">
         <v>50</v>
       </c>
-      <c r="N4" s="14">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
         <v>300</v>
       </c>
-      <c r="P4" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>0</v>
-      </c>
-      <c r="R4" s="14">
-        <f t="shared" ref="R4:R12" si="1">SUM(K4:Q4)</f>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" ref="U4:U12" si="1">SUM(N4:T4)</f>
         <v>600</v>
       </c>
-      <c r="S4" s="14">
-        <v>0</v>
-      </c>
-      <c r="T4" s="15">
-        <f t="shared" ref="T4:T12" si="2">E4*0.12</f>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <f t="shared" ref="W4:W12" si="2">E4*0.12</f>
         <v>744</v>
       </c>
-      <c r="U4" s="14">
-        <v>0</v>
-      </c>
-      <c r="V4" s="14">
-        <v>0</v>
-      </c>
-      <c r="W4" s="15">
-        <f t="shared" ref="W4:W12" si="3">SUM(S4:V4)</f>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" ref="Z4:Z12" si="3">SUM(V4:Y4)</f>
         <v>744</v>
       </c>
-      <c r="X4" s="15">
-        <f t="shared" ref="X4:X12" si="4">J4+R4-W4</f>
+      <c r="AA4" s="3">
+        <f t="shared" ref="AA4:AA12" si="4">M4+U4-Z4</f>
         <v>9659</v>
       </c>
-      <c r="Y4" s="15">
-        <f t="shared" ref="Y4:Y12" si="5">IF(X4-3500&lt;=0,0,IF(X4-3500&lt;=1500,(X4-3500)*0.03,IF(X4-3500&lt;=4500,(X4-3500)*0.1-105,IF(X4-3500&lt;=9000,(X4-3500)*0.2-555,IF(X4-3500&lt;=35000,(X4-3500)*0.25-1005,IF(X4-3500&lt;=55000,(X4-3500)*0.3-2755,IF(X4-3500&lt;=80000,(X4-3500)*0.35-5505,IF(X4-3500&gt;80000,(X4-3500)*0.45-13505,0))))))))</f>
+      <c r="AB4" s="3">
+        <f t="shared" ref="AB4:AB12" si="5">IF(AA4-3500&lt;=0,0,IF(AA4-3500&lt;=1500,(AA4-3500)*0.03,IF(AA4-3500&lt;=4500,(AA4-3500)*0.1-105,IF(AA4-3500&lt;=9000,(AA4-3500)*0.2-555,IF(AA4-3500&lt;=35000,(AA4-3500)*0.25-1005,IF(AA4-3500&lt;=55000,(AA4-3500)*0.3-2755,IF(AA4-3500&lt;=80000,(AA4-3500)*0.35-5505,IF(AA4-3500&gt;80000,(AA4-3500)*0.45-13505,0))))))))</f>
         <v>676.80000000000018</v>
       </c>
-      <c r="Z4" s="15">
-        <f t="shared" ref="Z4:Z12" si="6">X4-Y4-W4</f>
+      <c r="AC4" s="3">
+        <f t="shared" ref="AC4:AC12" si="6">AA4-AB4-Z4</f>
         <v>8238.2000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="16" customFormat="1">
-      <c r="A5" s="11">
+    <row r="5" spans="1:29">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="4">
         <v>4500</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="4">
         <v>2800</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
         <f t="shared" si="0"/>
         <v>7301</v>
       </c>
-      <c r="K5" s="14">
+      <c r="N5" s="4">
         <v>150</v>
       </c>
-      <c r="L5" s="14">
+      <c r="O5" s="4">
         <v>50</v>
       </c>
-      <c r="M5" s="14">
+      <c r="P5" s="4">
         <v>50</v>
       </c>
-      <c r="N5" s="14">
-        <v>0</v>
-      </c>
-      <c r="O5" s="14">
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
         <v>300</v>
       </c>
-      <c r="P5" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>0</v>
-      </c>
-      <c r="R5" s="14">
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="S5" s="14">
-        <v>0</v>
-      </c>
-      <c r="T5" s="15">
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
-      <c r="U5" s="14">
-        <v>0</v>
-      </c>
-      <c r="V5" s="14">
-        <v>0</v>
-      </c>
-      <c r="W5" s="15">
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
         <f t="shared" si="3"/>
         <v>540</v>
       </c>
-      <c r="X5" s="15">
+      <c r="AA5" s="3">
         <f t="shared" si="4"/>
         <v>7311</v>
       </c>
-      <c r="Y5" s="15">
+      <c r="AB5" s="3">
         <f t="shared" si="5"/>
         <v>276.10000000000002</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="AC5" s="3">
         <f t="shared" si="6"/>
         <v>6494.9</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="16" customFormat="1">
-      <c r="A6" s="11">
+    <row r="6" spans="1:29">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="4">
         <v>6200</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="4">
         <v>2400</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
         <v>3</v>
       </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
         <f t="shared" si="0"/>
-        <v>8603</v>
-      </c>
-      <c r="K6" s="14">
+        <v>8606</v>
+      </c>
+      <c r="N6" s="4">
         <v>150</v>
       </c>
-      <c r="L6" s="14">
+      <c r="O6" s="4">
         <v>40</v>
       </c>
-      <c r="M6" s="14">
+      <c r="P6" s="4">
         <v>50</v>
       </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
-      <c r="O6" s="14">
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
         <v>300</v>
       </c>
-      <c r="P6" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>0</v>
-      </c>
-      <c r="R6" s="14">
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
-      <c r="S6" s="14">
-        <v>0</v>
-      </c>
-      <c r="T6" s="15">
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
         <f t="shared" si="2"/>
         <v>744</v>
       </c>
-      <c r="U6" s="14">
-        <v>0</v>
-      </c>
-      <c r="V6" s="14">
-        <v>0</v>
-      </c>
-      <c r="W6" s="15">
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
         <f t="shared" si="3"/>
         <v>744</v>
       </c>
-      <c r="X6" s="15">
+      <c r="AA6" s="3">
         <f t="shared" si="4"/>
-        <v>8399</v>
-      </c>
-      <c r="Y6" s="15">
+        <v>8402</v>
+      </c>
+      <c r="AB6" s="3">
         <f t="shared" si="5"/>
-        <v>424.80000000000007</v>
-      </c>
-      <c r="Z6" s="15">
+        <v>425.40000000000009</v>
+      </c>
+      <c r="AC6" s="3">
         <f t="shared" si="6"/>
-        <v>7230.2</v>
+        <v>7232.6</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="16" customFormat="1">
-      <c r="A7" s="11">
+    <row r="7" spans="1:29">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="4">
         <v>4500</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="4">
         <v>2300</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>2</v>
       </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
         <f t="shared" si="0"/>
-        <v>6802</v>
-      </c>
-      <c r="K7" s="14">
+        <v>6802.5</v>
+      </c>
+      <c r="N7" s="4">
         <v>150</v>
       </c>
-      <c r="L7" s="14">
+      <c r="O7" s="4">
         <v>30</v>
       </c>
-      <c r="M7" s="14">
+      <c r="P7" s="4">
         <v>50</v>
       </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
-      <c r="O7" s="14">
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
         <v>300</v>
       </c>
-      <c r="P7" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>0</v>
-      </c>
-      <c r="R7" s="14">
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
-      <c r="S7" s="14">
-        <v>0</v>
-      </c>
-      <c r="T7" s="15">
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
-      <c r="U7" s="14">
-        <v>0</v>
-      </c>
-      <c r="V7" s="14">
-        <v>0</v>
-      </c>
-      <c r="W7" s="15">
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
         <f t="shared" si="3"/>
         <v>540</v>
       </c>
-      <c r="X7" s="15">
+      <c r="AA7" s="3">
         <f t="shared" si="4"/>
-        <v>6792</v>
-      </c>
-      <c r="Y7" s="15">
+        <v>6792.5</v>
+      </c>
+      <c r="AB7" s="3">
         <f t="shared" si="5"/>
-        <v>224.20000000000005</v>
-      </c>
-      <c r="Z7" s="15">
+        <v>224.25</v>
+      </c>
+      <c r="AC7" s="3">
         <f t="shared" si="6"/>
-        <v>6027.8</v>
+        <v>6028.25</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="16" customFormat="1">
-      <c r="A8" s="11">
+    <row r="8" spans="1:29">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="4">
         <v>4500</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="4">
         <v>1800</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
         <f t="shared" si="0"/>
         <v>6301</v>
       </c>
-      <c r="K8" s="14">
+      <c r="N8" s="4">
         <v>150</v>
       </c>
-      <c r="L8" s="14">
+      <c r="O8" s="4">
         <v>20</v>
       </c>
-      <c r="M8" s="14">
+      <c r="P8" s="4">
         <v>50</v>
       </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-      <c r="O8" s="14">
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
         <v>300</v>
       </c>
-      <c r="P8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>0</v>
-      </c>
-      <c r="R8" s="14">
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
         <f t="shared" si="1"/>
         <v>520</v>
       </c>
-      <c r="S8" s="14">
-        <v>0</v>
-      </c>
-      <c r="T8" s="15">
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
-      <c r="U8" s="14">
-        <v>0</v>
-      </c>
-      <c r="V8" s="14">
-        <v>0</v>
-      </c>
-      <c r="W8" s="15">
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <f t="shared" si="3"/>
         <v>540</v>
       </c>
-      <c r="X8" s="15">
+      <c r="AA8" s="3">
         <f t="shared" si="4"/>
         <v>6281</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="AB8" s="3">
         <f t="shared" si="5"/>
         <v>173.10000000000002</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="AC8" s="3">
         <f t="shared" si="6"/>
         <v>5567.9</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="16" customFormat="1">
-      <c r="A9" s="11">
+    <row r="9" spans="1:29">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="4">
         <v>6200</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="4">
         <v>1500</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>3</v>
       </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
         <f t="shared" si="0"/>
-        <v>7703</v>
-      </c>
-      <c r="K9" s="14">
+        <v>7703.5</v>
+      </c>
+      <c r="N9" s="4">
         <v>150</v>
       </c>
-      <c r="L9" s="14">
+      <c r="O9" s="4">
         <v>50</v>
       </c>
-      <c r="M9" s="14">
+      <c r="P9" s="4">
         <v>50</v>
       </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-      <c r="O9" s="14">
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
         <v>300</v>
       </c>
-      <c r="P9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>0</v>
-      </c>
-      <c r="R9" s="14">
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="S9" s="14">
-        <v>0</v>
-      </c>
-      <c r="T9" s="15">
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <f t="shared" si="2"/>
         <v>744</v>
       </c>
-      <c r="U9" s="14">
-        <v>0</v>
-      </c>
-      <c r="V9" s="14">
-        <v>0</v>
-      </c>
-      <c r="W9" s="15">
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <f t="shared" si="3"/>
         <v>744</v>
       </c>
-      <c r="X9" s="15">
+      <c r="AA9" s="3">
         <f t="shared" si="4"/>
-        <v>7509</v>
-      </c>
-      <c r="Y9" s="15">
+        <v>7509.5</v>
+      </c>
+      <c r="AB9" s="3">
         <f t="shared" si="5"/>
-        <v>295.90000000000003</v>
-      </c>
-      <c r="Z9" s="15">
+        <v>295.95000000000005</v>
+      </c>
+      <c r="AC9" s="3">
         <f t="shared" si="6"/>
-        <v>6469.1</v>
+        <v>6469.55</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="16" customFormat="1">
-      <c r="A10" s="11">
+    <row r="10" spans="1:29">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="4">
         <v>4500</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="4">
         <v>900</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
         <v>5</v>
       </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
         <f t="shared" si="0"/>
-        <v>5405</v>
-      </c>
-      <c r="K10" s="14">
+        <v>5406</v>
+      </c>
+      <c r="N10" s="4">
         <v>150</v>
       </c>
-      <c r="L10" s="14">
+      <c r="O10" s="4">
         <v>30</v>
       </c>
-      <c r="M10" s="14">
+      <c r="P10" s="4">
         <v>50</v>
       </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-      <c r="O10" s="14">
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
         <v>300</v>
       </c>
-      <c r="P10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>0</v>
-      </c>
-      <c r="R10" s="14">
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
-      <c r="S10" s="14">
-        <v>0</v>
-      </c>
-      <c r="T10" s="15">
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
-      <c r="U10" s="14">
-        <v>0</v>
-      </c>
-      <c r="V10" s="14">
-        <v>0</v>
-      </c>
-      <c r="W10" s="15">
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <f t="shared" si="3"/>
         <v>540</v>
       </c>
-      <c r="X10" s="15">
+      <c r="AA10" s="3">
         <f t="shared" si="4"/>
-        <v>5395</v>
-      </c>
-      <c r="Y10" s="15">
+        <v>5396</v>
+      </c>
+      <c r="AB10" s="3">
         <f t="shared" si="5"/>
-        <v>84.5</v>
-      </c>
-      <c r="Z10" s="15">
+        <v>84.600000000000023</v>
+      </c>
+      <c r="AC10" s="3">
         <f t="shared" si="6"/>
-        <v>4770.5</v>
+        <v>4771.3999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="16" customFormat="1">
-      <c r="A11" s="11">
+    <row r="11" spans="1:29">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="4">
         <v>6200</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="4">
         <v>800</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
         <v>7</v>
       </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
         <f t="shared" si="0"/>
         <v>7007</v>
       </c>
-      <c r="K11" s="14">
+      <c r="N11" s="4">
         <v>150</v>
       </c>
-      <c r="L11" s="14">
+      <c r="O11" s="4">
         <v>20</v>
       </c>
-      <c r="M11" s="14">
+      <c r="P11" s="4">
         <v>50</v>
       </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14">
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
         <v>300</v>
       </c>
-      <c r="P11" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>0</v>
-      </c>
-      <c r="R11" s="14">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
         <f t="shared" si="1"/>
         <v>520</v>
       </c>
-      <c r="S11" s="14">
-        <v>0</v>
-      </c>
-      <c r="T11" s="15">
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
         <f t="shared" si="2"/>
         <v>744</v>
       </c>
-      <c r="U11" s="14">
-        <v>0</v>
-      </c>
-      <c r="V11" s="14">
-        <v>0</v>
-      </c>
-      <c r="W11" s="15">
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
         <f t="shared" si="3"/>
         <v>744</v>
       </c>
-      <c r="X11" s="15">
+      <c r="AA11" s="3">
         <f t="shared" si="4"/>
         <v>6783</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="AB11" s="3">
         <f t="shared" si="5"/>
         <v>223.3</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="AC11" s="3">
         <f t="shared" si="6"/>
         <v>5815.7</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="16" customFormat="1">
-      <c r="A12" s="11">
+    <row r="12" spans="1:29">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="4">
         <v>8300</v>
       </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
         <f t="shared" si="0"/>
         <v>8301</v>
       </c>
-      <c r="K12" s="14">
+      <c r="N12" s="4">
         <v>150</v>
       </c>
-      <c r="L12" s="14">
+      <c r="O12" s="4">
         <v>40</v>
       </c>
-      <c r="M12" s="14">
+      <c r="P12" s="4">
         <v>50</v>
       </c>
-      <c r="N12" s="14">
-        <v>0</v>
-      </c>
-      <c r="O12" s="14">
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
         <v>300</v>
       </c>
-      <c r="P12" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>0</v>
-      </c>
-      <c r="R12" s="14">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
-      <c r="S12" s="14">
-        <v>0</v>
-      </c>
-      <c r="T12" s="15">
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <f t="shared" si="2"/>
         <v>996</v>
       </c>
-      <c r="U12" s="14">
-        <v>0</v>
-      </c>
-      <c r="V12" s="14">
-        <v>0</v>
-      </c>
-      <c r="W12" s="15">
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
         <f t="shared" si="3"/>
         <v>996</v>
       </c>
-      <c r="X12" s="15">
+      <c r="AA12" s="3">
         <f t="shared" si="4"/>
         <v>7845</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="AB12" s="3">
         <f t="shared" si="5"/>
         <v>329.5</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="AC12" s="3">
         <f t="shared" si="6"/>
         <v>6519.5</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="2">
+    <row r="13" spans="1:29">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="7">
-        <f>SUM(E3:E12)</f>
+      <c r="E13" s="4">
+        <f t="shared" ref="E13:AC13" si="7">SUM(E3:E12)</f>
         <v>55600</v>
       </c>
-      <c r="F13" s="6">
-        <f>SUM(F3:F12)</f>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13" si="8">SUM(F3:F12)</f>
         <v>18100</v>
       </c>
-      <c r="G13" s="6">
-        <f>SUM(G3:G12)</f>
+      <c r="G13" s="4">
+        <f t="shared" ref="G13" si="9">SUM(G3:G12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" ref="H13" si="10">SUM(H3:H12)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" ref="I13" si="11">SUM(I3:I12)</f>
+        <v>4</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="H13" s="6">
-        <f>SUM(H3:H12)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <f>SUM(I3:I12)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <f>SUM(J3:J12)</f>
-        <v>73728</v>
-      </c>
-      <c r="K13" s="6">
-        <f>SUM(K3:K12)</f>
+      <c r="K13" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="7"/>
+        <v>73734</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="7"/>
         <v>1500</v>
       </c>
-      <c r="L13" s="6">
-        <f>SUM(L3:L12)</f>
+      <c r="O13" s="4">
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
-      <c r="M13" s="6">
-        <f>SUM(M3:M12)</f>
+      <c r="P13" s="4">
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="N13" s="6">
-        <f>SUM(N3:N12)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
-        <f>SUM(O3:O12)</f>
+      <c r="Q13" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="P13" s="6">
-        <f>SUM(P3:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
-        <f>SUM(Q3:Q12)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <f>SUM(R3:R12)</f>
+      <c r="S13" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="7"/>
         <v>5480</v>
       </c>
-      <c r="S13" s="6">
-        <f>SUM(S3:S12)</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="6">
-        <f>SUM(T3:T12)</f>
+      <c r="V13" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="7"/>
         <v>6672</v>
       </c>
-      <c r="U13" s="6">
-        <f>SUM(U3:U12)</f>
+      <c r="X13" s="4">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="V13" s="6">
-        <f>SUM(V3:V12)</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="5">
-        <f>SUM(W3:W12)</f>
+      <c r="Y13" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" si="7"/>
         <v>6682</v>
       </c>
-      <c r="X13" s="5">
-        <f>SUM(X3:X12)</f>
-        <v>73626</v>
-      </c>
-      <c r="Y13" s="5">
-        <f>SUM(Y3:Y12)</f>
-        <v>3018.400000000001</v>
-      </c>
-      <c r="Z13" s="5">
-        <f>SUM(Z3:Z12)</f>
-        <v>63925.599999999999</v>
+      <c r="AA13" s="3">
+        <f t="shared" si="7"/>
+        <v>73632</v>
+      </c>
+      <c r="AB13" s="3">
+        <f t="shared" si="7"/>
+        <v>3019.3000000000006</v>
+      </c>
+      <c r="AC13" s="3">
+        <f t="shared" si="7"/>
+        <v>63930.700000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.1" right="0.14000000000000001" top="0.2" bottom="0.39370078740157483" header="0" footer="0"/>

--- a/案例6_拆分员工工资单/1 课程文件/员工工资表.xlsx
+++ b/案例6_拆分员工工资单/1 课程文件/员工工资表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yixingzeng/Documents/0.workspace/60.my_course/ai-py-intro-course-c3/案例6_拆分员工工资单/1 课程文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98A7EBA-8316-5E45-A170-2F6A8B414AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3DB5AE-9FC0-944A-8D69-1F65612E13B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="880" windowWidth="34900" windowHeight="22500" xr2:uid="{C3651C1E-AC98-1A4F-85B2-F2704CCDB4F3}"/>
   </bookViews>
@@ -331,9 +331,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -345,6 +342,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,73 +683,73 @@
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="219" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="9" customWidth="1"/>
-    <col min="5" max="6" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="5.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5" style="9" customWidth="1"/>
-    <col min="30" max="259" width="8.83203125" style="9" customWidth="1"/>
-    <col min="260" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="4.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="8" customWidth="1"/>
+    <col min="5" max="6" width="6.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.1640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="5.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" style="8" customWidth="1"/>
+    <col min="30" max="259" width="8.83203125" style="8" customWidth="1"/>
+    <col min="260" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:29" s="5" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" ht="60">
+    <row r="2" spans="1:29" s="5" customFormat="1" ht="60">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -842,13 +842,13 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="4">
@@ -934,13 +934,13 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="4">
@@ -1027,10 +1027,10 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="4">
@@ -1114,13 +1114,13 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="4">
@@ -1130,7 +1130,9 @@
         <v>2400</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
       <c r="I6" s="4">
         <v>3</v>
       </c>
@@ -1145,7 +1147,7 @@
       </c>
       <c r="M6" s="4">
         <f t="shared" si="0"/>
-        <v>8606</v>
+        <v>8607</v>
       </c>
       <c r="N6" s="4">
         <v>150</v>
@@ -1191,15 +1193,15 @@
       </c>
       <c r="AA6" s="3">
         <f t="shared" si="4"/>
-        <v>8402</v>
+        <v>8403</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" si="5"/>
-        <v>425.40000000000009</v>
+        <v>425.6</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" si="6"/>
-        <v>7232.6</v>
+        <v>7233.4</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1209,10 +1211,10 @@
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="4">
@@ -1298,13 +1300,13 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="4">
@@ -1391,10 +1393,10 @@
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="4">
@@ -1483,10 +1485,10 @@
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="4">
@@ -1575,10 +1577,10 @@
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="4">
@@ -1662,13 +1664,13 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="4">
@@ -1752,7 +1754,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1"/>
@@ -1771,7 +1773,7 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" ref="H13" si="10">SUM(H3:H12)</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" ref="I13" si="11">SUM(I3:I12)</f>
@@ -1791,7 +1793,7 @@
       </c>
       <c r="M13" s="4">
         <f t="shared" si="7"/>
-        <v>73734</v>
+        <v>73735</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="7"/>
@@ -1847,15 +1849,15 @@
       </c>
       <c r="AA13" s="3">
         <f t="shared" si="7"/>
-        <v>73632</v>
+        <v>73633</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" si="7"/>
-        <v>3019.3000000000006</v>
+        <v>3019.5000000000005</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" si="7"/>
-        <v>63930.700000000004</v>
+        <v>63931.500000000007</v>
       </c>
     </row>
   </sheetData>
